--- a/data/trans_camb/P36B02_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B02_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.259572754049566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.813209733442527</v>
+        <v>-6.813209733442505</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2194125202924946</v>
@@ -655,7 +655,7 @@
         <v>0.144571663634474</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.015660014923895</v>
+        <v>-5.015660014923906</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1128772589423566</v>
@@ -664,7 +664,7 @@
         <v>-1.059704615519119</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.880748722869756</v>
+        <v>-5.880748722869744</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.347845091701926</v>
+        <v>-2.522590014941346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.095069614745153</v>
+        <v>-4.909075238033907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.09120347851507</v>
+        <v>-10.43883303518981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.131178365821566</v>
+        <v>-2.155989665699962</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.102898792867889</v>
+        <v>-2.271405140016783</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.515338343747795</v>
+        <v>-7.621909218802074</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.525954511200889</v>
+        <v>-1.594798534411116</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.861157146187437</v>
+        <v>-2.847179233275379</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.838358596989741</v>
+        <v>-7.863729013335967</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.362065736299996</v>
+        <v>2.33507921801162</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2104015883651152</v>
+        <v>0.357432948083203</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.783944233014089</v>
+        <v>-3.582654484650615</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.40920825933298</v>
+        <v>2.400038733730822</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.288432926197078</v>
+        <v>2.289163766655294</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.534844660440891</v>
+        <v>-2.740555375170624</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.706591415651452</v>
+        <v>1.745924165715114</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5967500240381568</v>
+        <v>0.6223488712243656</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.891254941455426</v>
+        <v>-3.973118632626572</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.02378746044453834</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.07172548737107518</v>
+        <v>-0.07172548737107495</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.002299533891268787</v>
@@ -760,7 +760,7 @@
         <v>0.001515170783332715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.05256618982373423</v>
+        <v>-0.05256618982373434</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.001185657973213954</v>
@@ -769,7 +769,7 @@
         <v>-0.01113109264359002</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.06177113687088204</v>
+        <v>-0.06177113687088192</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02452959586046006</v>
+        <v>-0.02631459755208079</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05324624570021701</v>
+        <v>-0.05143710832241446</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1055833766105833</v>
+        <v>-0.109646325936736</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02209689104299024</v>
+        <v>-0.02250432610636421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02207961957481382</v>
+        <v>-0.02346507832353491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07826282882392464</v>
+        <v>-0.07859650616187594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01588479688651509</v>
+        <v>-0.01662020753357132</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02969024084797057</v>
+        <v>-0.02964628686893169</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08231314294618229</v>
+        <v>-0.08225673783824546</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02528448191562941</v>
+        <v>0.02506887635931139</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.002088554587099018</v>
+        <v>0.003572760564441105</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04059882496348319</v>
+        <v>-0.03836932314437162</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02567496925060525</v>
+        <v>0.02543313333760903</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02407249136917662</v>
+        <v>0.02433351641754644</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02705193580870366</v>
+        <v>-0.02906826243108138</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01809571665174418</v>
+        <v>0.0186197483024745</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0062930404589662</v>
+        <v>0.006627426619571218</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04118095249540184</v>
+        <v>-0.04217183401039266</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.1225732943562097</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.093066013862588</v>
+        <v>-2.093066013862577</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.013206631342812</v>
@@ -878,7 +878,7 @@
         <v>-0.3135933210035802</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.06411711671719</v>
+        <v>-2.064117116717201</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1806244278049736</v>
+        <v>0.2747587720232768</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.275572690848487</v>
+        <v>-3.164037019057181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.767052518355245</v>
+        <v>-4.875710763598554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.881365353127727</v>
+        <v>-0.6478182782561231</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.284108909152969</v>
+        <v>-2.325067002771493</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.290268561188443</v>
+        <v>-4.139884442492011</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4821292522248404</v>
+        <v>0.3958664485016636</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.218598030328302</v>
+        <v>-1.953615880848521</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.921811873901881</v>
+        <v>-3.954508551282952</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.867411174873537</v>
+        <v>4.879340693007019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.026278363453425</v>
+        <v>2.062951584241393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8785384384432389</v>
+        <v>0.6662320943145112</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.507501192551666</v>
+        <v>3.721420978564407</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.22146715088713</v>
+        <v>2.076515070014835</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2028373591706207</v>
+        <v>0.2596592970945516</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.625232473919034</v>
+        <v>3.512458986289438</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.294345091804071</v>
+        <v>1.257640425381636</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.3683281700322928</v>
+        <v>-0.3404414222756773</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.001313831330444089</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.02243503138382504</v>
+        <v>-0.02243503138382492</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02173119202910857</v>
@@ -983,7 +983,7 @@
         <v>-0.003385025944023061</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02228073598388275</v>
+        <v>-0.02228073598388287</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.001656882098448067</v>
+        <v>0.002975768180883251</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03521669500448946</v>
+        <v>-0.03387786785031071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05070264562095061</v>
+        <v>-0.05263264637785094</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.009312994403050716</v>
+        <v>-0.00696886526708705</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02425092874854954</v>
+        <v>-0.02468193075495785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04560981910602324</v>
+        <v>-0.04398417151668818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005219868081188945</v>
+        <v>0.004269445680648186</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02366611225604284</v>
+        <v>-0.02087914093185546</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04216121029124253</v>
+        <v>-0.0422918428164405</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05382580681681617</v>
+        <v>0.05396173368274258</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02202665794853896</v>
+        <v>0.02315269694266845</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.009766900481507574</v>
+        <v>0.007313502412670364</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03823573555878883</v>
+        <v>0.04029797852190351</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02408819007635215</v>
+        <v>0.0225585867604468</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002199067073414889</v>
+        <v>0.002999004137015382</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03947350738075589</v>
+        <v>0.03821946007230939</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01411236317664631</v>
+        <v>0.01367648072612176</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.004067366653939791</v>
+        <v>-0.003575665750411973</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.834663252644077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-11.11237360958719</v>
+        <v>-11.1123736095872</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.059199448385806</v>
@@ -1083,7 +1083,7 @@
         <v>-0.5118711620089811</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-8.721856498051672</v>
+        <v>-8.721856498051682</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.918781209872422</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.165623038576967</v>
+        <v>-6.25397063573401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.380881471629578</v>
+        <v>-6.875013170278437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.40928811721597</v>
+        <v>-14.66372193350023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.592011520330602</v>
+        <v>-3.789419336757569</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.003572754914238</v>
+        <v>-2.994815612752765</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.78341137730807</v>
+        <v>-11.58812652667217</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.068229351526644</v>
+        <v>-4.145053585479689</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.168237517035061</v>
+        <v>-4.163507842618254</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.18688054132757</v>
+        <v>-12.1506565726383</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.123582235444641</v>
+        <v>0.5521809548021221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7017923002358492</v>
+        <v>-0.6843587461510385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.971223366959615</v>
+        <v>-7.390498500072394</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.590710905798223</v>
+        <v>1.464890785692556</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.811477235772147</v>
+        <v>1.907297804445488</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.915007210419651</v>
+        <v>-5.852232220567924</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.03031917215246595</v>
+        <v>0.07055992331062455</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.2465936127213969</v>
+        <v>-0.2648951168078761</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-7.738715648011397</v>
+        <v>-7.448261592333074</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.04146638881652262</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1201643989082701</v>
+        <v>-0.1201643989082702</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01128079703870359</v>
@@ -1188,7 +1188,7 @@
         <v>-0.005451583927265629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.09289043069760107</v>
+        <v>-0.09289043069760118</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02059056261898066</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06614553256269189</v>
+        <v>-0.06725671230460128</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07897877881970765</v>
+        <v>-0.07371028591131891</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1646719489149307</v>
+        <v>-0.1571524833253534</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.03847045218179576</v>
+        <v>-0.0402469170610651</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0315463208114496</v>
+        <v>-0.03152295579438358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1241130965093914</v>
+        <v>-0.1217228274914774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04348152938093177</v>
+        <v>-0.04422222788099335</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04447010618305411</v>
+        <v>-0.04403895825519802</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1293224161149557</v>
+        <v>-0.1300586262409556</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.001329852894515118</v>
+        <v>0.005816128098261566</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.008139235673886663</v>
+        <v>-0.008068664165494153</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.08725046433416422</v>
+        <v>-0.08068828985413777</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01726046366717111</v>
+        <v>0.0156853857414228</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01961333609896404</v>
+        <v>0.02053805735776337</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.0637968141010265</v>
+        <v>-0.06297007249403479</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.0004177256555628623</v>
+        <v>0.000634841727075892</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.002688250744534143</v>
+        <v>-0.002952801590598415</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08382396669213796</v>
+        <v>-0.08031978808850769</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.335400141623065</v>
+        <v>-1.435002850331238</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.043447487822774</v>
+        <v>-0.9723766363223338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.181702176598733</v>
+        <v>-7.234347776359458</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.382667509691237</v>
+        <v>-3.064827657257429</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.379896487436794</v>
+        <v>-2.278556433514819</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.319369898926235</v>
+        <v>-8.242532909983062</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.670932610710019</v>
+        <v>-1.624985624713524</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.153263570379655</v>
+        <v>-0.9509225531218193</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.159219042897908</v>
+        <v>-7.053622450147204</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.31411688884654</v>
+        <v>3.530792617150393</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.449749980873919</v>
+        <v>3.691873602028076</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.584679815772119</v>
+        <v>-1.420062528400758</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9502787447419068</v>
+        <v>0.9431592081194033</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.613487170026765</v>
+        <v>1.785847624960357</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.917631206532349</v>
+        <v>-3.887924194234254</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.347982333985251</v>
+        <v>1.529861947533195</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.900725523919547</v>
+        <v>1.951439560788838</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.667923633508472</v>
+        <v>-3.613498508744978</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01403525604650282</v>
+        <v>-0.01521120241082458</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01121888363604628</v>
+        <v>-0.01031179640741346</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07763806825919516</v>
+        <v>-0.07727711216496749</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03518160359699209</v>
+        <v>-0.03191666226750658</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02489122324476359</v>
+        <v>-0.02397829925387415</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0870058152361067</v>
+        <v>-0.08594764532991651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01770299169115726</v>
+        <v>-0.01717768267366945</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0122036955986598</v>
+        <v>-0.01013606968679765</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07573268534363413</v>
+        <v>-0.07497956998570228</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03650164878121741</v>
+        <v>0.03863254317593511</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0376331005077781</v>
+        <v>0.04105121832389467</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01769805890400272</v>
+        <v>-0.01525058010462751</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01002403645295305</v>
+        <v>0.01007288148098017</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01715555535145395</v>
+        <v>0.01912652286874092</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04194037486184352</v>
+        <v>-0.04158723422124704</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01449824390652223</v>
+        <v>0.01645944714442273</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02056235101574325</v>
+        <v>0.02105095036718461</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.03952613732105316</v>
+        <v>-0.03904998596404436</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.2570480860348279</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.348403407633429</v>
+        <v>-5.348403407633418</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.1389116881054586</v>
@@ -1520,7 +1520,7 @@
         <v>-0.6793396103935478</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.516518155397243</v>
+        <v>-5.516518155397232</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8008806710540323</v>
+        <v>-0.8777579692650469</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.425063444949692</v>
+        <v>-2.473823501929903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.125856926696088</v>
+        <v>-7.338205720694805</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.348482608990671</v>
+        <v>-1.3145894106956</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.436679178486752</v>
+        <v>-1.377661603959095</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.550821289281293</v>
+        <v>-6.645398714599176</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6886698254830702</v>
+        <v>-0.7897719718303472</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.511046012927658</v>
+        <v>-1.608458117525655</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.437611215938264</v>
+        <v>-6.529209347369144</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.741688521863797</v>
+        <v>1.6167411082663</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3169762872076389</v>
+        <v>0.1821427599747199</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.958961073531075</v>
+        <v>-4.127463334490447</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.036687796437539</v>
+        <v>0.8991202384811778</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7685840148859573</v>
+        <v>0.9069186262292217</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.057370541727059</v>
+        <v>-4.260559543107095</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.009428382259012</v>
+        <v>0.9643179050728825</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2045675885852831</v>
+        <v>0.2732589604073748</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.437625400038972</v>
+        <v>-4.51927237584828</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.002725494486364341</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05670940493360489</v>
+        <v>-0.05670940493360477</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.001483958678603727</v>
@@ -1625,7 +1625,7 @@
         <v>-0.00725721445266322</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.058931578069672</v>
+        <v>-0.05893157806967187</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.008557341710641033</v>
+        <v>-0.009430257055686441</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02591885726705101</v>
+        <v>-0.02657480058374716</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0761834072406858</v>
+        <v>-0.07872889638193849</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01414801807412093</v>
+        <v>-0.01380926316048523</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01506078770230115</v>
+        <v>-0.01451072934678201</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06893809929455874</v>
+        <v>-0.07000286285728249</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.007326288278198523</v>
+        <v>-0.008405490559886502</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01607362043368663</v>
+        <v>-0.0171161223112295</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.0686102306616322</v>
+        <v>-0.06958013167518029</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01892472699052996</v>
+        <v>0.01760321654681694</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.003430723317060569</v>
+        <v>0.001963074490558215</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04314786780089001</v>
+        <v>-0.04476238857726738</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01106562879680665</v>
+        <v>0.009580149163687483</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.008203084495149305</v>
+        <v>0.009647999619817042</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.04333664791670682</v>
+        <v>-0.04536439920487161</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01080996882471485</v>
+        <v>0.0103191325994039</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.002229811744872894</v>
+        <v>0.002929293771390582</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.04760123380367813</v>
+        <v>-0.04852152208005363</v>
       </c>
     </row>
     <row r="34">
